--- a/biology/Zoologie/Anshunsaurus/Anshunsaurus.xlsx
+++ b/biology/Zoologie/Anshunsaurus/Anshunsaurus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Anshunsaurus est un genre éteint de « reptiles » marins[a] thalattosauriens, de la super-famille des Askeptosauroidea et de la famille des Askeptosauridae. Il possède un long cou, un crâne fin, et une longue queue semblable à une pagaie. Il a vécu au Trias dans ce qui et aujourd'hui la Chine[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Anshunsaurus est un genre éteint de « reptiles » marins[a] thalattosauriens, de la super-famille des Askeptosauroidea et de la famille des Askeptosauridae. Il possède un long cou, un crâne fin, et une longue queue semblable à une pagaie. Il a vécu au Trias dans ce qui et aujourd'hui la Chine.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Par rapport à son long tronc, les membres sont très petits. Anshunsaurus est caractérisé par un long os jugal dans le crâne, des os postorbitaires et post-frontaux fusionnés autour des yeux, un os maxillaire qui fait partie de la marge de l'orbite, un humérus avec de grandes crêtes et un grand péroné. L'espèce type de Ansunsaurus, A. huangguoshuensis, a été nommée en 1999. Elle a été découverte dans la formation géologique de Falang dans le comté de Guanling. Bien que plusieurs squelettes complets soient connus, la plupart des spécimens sont écrasés verticalement.
 L'holotype de A. huangguoshuensis, IVPP V11835, est conservé en vue dorsale tandis qu'un deuxième spécimen, IVPP V11834, est conservé en vue ventrale.
@@ -543,11 +557,13 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>† Anshunsaurus huangguoshuensis Liu, 1999, (espèce type)
-† Anshunsaurus huangnihensis Cheng et al.[2], 2007
-† Anshunsaurus wushaensis Rieppel et al.[3], 2006</t>
+† Anshunsaurus huangnihensis Cheng et al., 2007
+† Anshunsaurus wushaensis Rieppel et al., 2006</t>
         </is>
       </c>
     </row>
@@ -575,9 +591,11 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La phylogénie présentée ici suit Haaramo (2004)[4] et Wu et al. (2009)[5] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La phylogénie présentée ici suit Haaramo (2004) et Wu et al. (2009) :
 </t>
         </is>
       </c>
@@ -606,7 +624,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>(en) Jun Liu, « Sauropterygian from Triassic of Guizhou, China », Science Bulletin, Springer Science+Business Media, Elsevier, SpringerOpen (d) et Springer Nature (d), vol. 44, no 14,‎ juillet 1999, p. 1312-1316 (ISSN 2095-9273, 2095-9281, 1001-6538 et 1861-9541, OCLC 909881195, DOI 10.1007/BF02885852, lire en ligne)</t>
         </is>
